--- a/config.xlsx
+++ b/config.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27855" windowHeight="12975" activeTab="1"/>
+    <workbookView windowWidth="27870" windowHeight="12975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="room" sheetId="1" r:id="rId1"/>
     <sheet name="goods" sheetId="3" r:id="rId2"/>
+    <sheet name="monsterPrefix" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +62,24 @@
   </si>
   <si>
     <t>泡面</t>
+  </si>
+  <si>
+    <t>可怖的</t>
+  </si>
+  <si>
+    <t>温柔的</t>
+  </si>
+  <si>
+    <t>疤痕满满的</t>
+  </si>
+  <si>
+    <t>愤怒的</t>
+  </si>
+  <si>
+    <t>悲伤的</t>
+  </si>
+  <si>
+    <t>可憎的</t>
   </si>
 </sst>
 </file>
@@ -1051,8 +1070,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1110,4 +1129,80 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>